--- a/Bridge/Market exposure/Market Exposure_COPY.xlsx
+++ b/Bridge/Market exposure/Market Exposure_COPY.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="766"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="766" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="7" r:id="rId1"/>
@@ -6230,6 +6230,10 @@
     <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6260,10 +6264,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
@@ -6672,7 +6672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -6704,10 +6704,10 @@
       <c r="B2" s="52"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="136" t="s">
+      <c r="D3" s="140" t="s">
         <v>413</v>
       </c>
-      <c r="E3" s="136"/>
+      <c r="E3" s="140"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D4" s="74" t="s">
@@ -6715,7 +6715,7 @@
       </c>
       <c r="E4" s="16">
         <f>SUM(Commodity!E20,Index!E33,ETF!D34,Bonds!E14,FOREX!C30,Stocks!D121)</f>
-        <v>73324.250810761761</v>
+        <v>73463.223481523528</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="E5" s="75">
         <f>SUM(Commodity!F20,Index!F33,Stocks!E121,ETF!E34,Bonds!F14,FOREX!C31)</f>
-        <v>73.324250810761768</v>
+        <v>73.463223481523528</v>
       </c>
       <c r="F5" s="46"/>
       <c r="G5" s="47"/>
@@ -6735,8 +6735,8 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" s="42"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="135"/>
       <c r="F6" s="42"/>
       <c r="G6" s="45"/>
       <c r="H6" s="43"/>
@@ -6745,8 +6745,8 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="42"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="145"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="135"/>
       <c r="F7" s="42"/>
       <c r="G7" s="45"/>
       <c r="H7" s="49"/>
@@ -6755,8 +6755,8 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="42"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="147"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="42"/>
       <c r="G8" s="45"/>
       <c r="H8" s="49"/>
@@ -6764,8 +6764,8 @@
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="137"/>
       <c r="I9" s="48"/>
       <c r="J9" s="42"/>
     </row>
@@ -6782,9 +6782,9 @@
         <v>431</v>
       </c>
       <c r="E11" s="126"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
       <c r="I11" s="48"/>
       <c r="J11" s="42"/>
     </row>
@@ -6876,7 +6876,7 @@
       </c>
       <c r="E17" s="11">
         <f>Bonds!E14</f>
-        <v>26456.172670761767</v>
+        <v>26595.145341523526</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="121"/>
@@ -6903,9 +6903,9 @@
         <v>430</v>
       </c>
       <c r="E19" s="126"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="138"/>
       <c r="I19" s="48"/>
       <c r="J19" s="42"/>
     </row>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="E25" s="116">
         <f>Bonds!F14</f>
-        <v>26.456172670761763</v>
+        <v>26.595145341523526</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="121"/>
@@ -9212,10 +9212,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="137"/>
+      <c r="B3" s="141"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -14863,10 +14863,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="137"/>
+      <c r="B3" s="141"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -16241,8 +16241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N11372"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16511,45 +16511,45 @@
         <v>108.748</v>
       </c>
       <c r="D9" s="6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E9" s="82">
         <f>(B9*D9)/C9</f>
-        <v>138.97267076176112</v>
+        <v>277.94534152352225</v>
       </c>
       <c r="F9" s="37">
         <f t="shared" si="0"/>
-        <v>0.13897267076176112</v>
+        <v>0.27794534152352224</v>
       </c>
       <c r="G9" s="18">
-        <v>5.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="H9" s="63">
         <f t="shared" si="1"/>
-        <v>6.9486335380880559E-4</v>
+        <v>1.1117813660940889E-3</v>
       </c>
       <c r="I9" s="38">
         <f t="shared" si="2"/>
-        <v>0.69486335380880559</v>
+        <v>1.111781366094089</v>
       </c>
       <c r="J9" s="18">
         <v>1E-3</v>
       </c>
       <c r="K9" s="63">
         <f t="shared" si="3"/>
-        <v>1.3897267076176111E-4</v>
+        <v>2.7794534152352223E-4</v>
       </c>
       <c r="L9" s="38">
         <f t="shared" si="4"/>
-        <v>0.13897267076176112</v>
+        <v>0.27794534152352224</v>
       </c>
       <c r="M9" s="114">
         <f t="shared" si="5"/>
-        <v>151.88565</v>
+        <v>151.73452</v>
       </c>
       <c r="N9" s="115">
         <f t="shared" si="6"/>
-        <v>151.10899706026777</v>
+        <v>151.08799412053554</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -16743,11 +16743,11 @@
       </c>
       <c r="E14" s="79">
         <f>SUM(E5:E13)</f>
-        <v>26456.172670761767</v>
+        <v>26595.145341523526</v>
       </c>
       <c r="F14" s="92">
         <f>SUM(F5:F13)</f>
-        <v>26.456172670761763</v>
+        <v>26.595145341523526</v>
       </c>
       <c r="H14" s="123"/>
       <c r="I14" s="52"/>
@@ -62268,36 +62268,36 @@
       </c>
     </row>
     <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="143" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="141"/>
-      <c r="O4" s="142" t="s">
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
+      <c r="O4" s="146" t="s">
         <v>423</v>
       </c>
-      <c r="P4" s="142"/>
-      <c r="Q4" s="142"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="142"/>
-      <c r="T4" s="142"/>
-      <c r="U4" s="142"/>
-      <c r="V4" s="142"/>
-      <c r="W4" s="142"/>
-      <c r="X4" s="142"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="142"/>
-      <c r="AA4" s="142"/>
+      <c r="P4" s="146"/>
+      <c r="Q4" s="146"/>
+      <c r="R4" s="146"/>
+      <c r="S4" s="146"/>
+      <c r="T4" s="146"/>
+      <c r="U4" s="146"/>
+      <c r="V4" s="146"/>
+      <c r="W4" s="146"/>
+      <c r="X4" s="146"/>
+      <c r="Y4" s="146"/>
+      <c r="Z4" s="146"/>
+      <c r="AA4" s="146"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -64586,10 +64586,10 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="138" t="s">
+      <c r="A30" s="142" t="s">
         <v>408</v>
       </c>
-      <c r="B30" s="138"/>
+      <c r="B30" s="142"/>
       <c r="C30" s="16">
         <f>SUM(D28,R46)</f>
         <v>0</v>
@@ -64650,10 +64650,10 @@
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="143" t="s">
+      <c r="A31" s="147" t="s">
         <v>409</v>
       </c>
-      <c r="B31" s="143"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="75">
         <f>SUM(E28,S46)</f>
         <v>0</v>
@@ -64714,10 +64714,10 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="138" t="s">
+      <c r="A32" s="142" t="s">
         <v>434</v>
       </c>
-      <c r="B32" s="138"/>
+      <c r="B32" s="142"/>
       <c r="C32" s="18">
         <f>SUM(J28,X46)</f>
         <v>0</v>
@@ -64778,10 +64778,10 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A33" s="138" t="s">
+      <c r="A33" s="142" t="s">
         <v>435</v>
       </c>
-      <c r="B33" s="138"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="18">
         <f>SUM(G28,U46)</f>
         <v>0</v>
@@ -64842,10 +64842,10 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A34" s="138" t="s">
+      <c r="A34" s="142" t="s">
         <v>432</v>
       </c>
-      <c r="B34" s="138"/>
+      <c r="B34" s="142"/>
       <c r="C34" s="11">
         <f>SUM(K28,Y46)</f>
         <v>0</v>
@@ -64906,10 +64906,10 @@
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35" s="138" t="s">
+      <c r="A35" s="142" t="s">
         <v>433</v>
       </c>
-      <c r="B35" s="138"/>
+      <c r="B35" s="142"/>
       <c r="C35" s="11">
         <f>SUM(H28,V46)</f>
         <v>0</v>
